--- a/src/kraken_files/excel_files/GNOUSD.xlsx
+++ b/src/kraken_files/excel_files/GNOUSD.xlsx
@@ -484,16 +484,16 @@
         <v>0.3125</v>
       </c>
       <c r="D2" t="n">
-        <v>459.434428656</v>
+        <v>458.957536224</v>
       </c>
       <c r="E2" t="n">
-        <v>469.697526228</v>
+        <v>469.209980712</v>
       </c>
       <c r="F2" t="n">
-        <v>474.39450149028</v>
+        <v>473.90208051912</v>
       </c>
       <c r="G2" t="n">
-        <v>3.153508901828317</v>
+        <v>3.153508901828295</v>
       </c>
     </row>
     <row r="3">
@@ -507,13 +507,13 @@
         <v>0.78125</v>
       </c>
       <c r="D3" t="n">
-        <v>435.18561870336</v>
+        <v>434.73389650944</v>
       </c>
       <c r="E3" t="n">
-        <v>452.44157246568</v>
+        <v>451.97193861072</v>
       </c>
       <c r="F3" t="n">
-        <v>456.9659881903368</v>
+        <v>456.4916579968273</v>
       </c>
       <c r="G3" t="n">
         <v>4.766299910685001</v>
@@ -530,16 +530,16 @@
         <v>1.953125</v>
       </c>
       <c r="D4" t="n">
-        <v>397.357475167415</v>
+        <v>396.94501854491</v>
       </c>
       <c r="E4" t="n">
-        <v>424.8995238165475</v>
+        <v>424.458478577815</v>
       </c>
       <c r="F4" t="n">
-        <v>429.1485190547129</v>
+        <v>428.7030633635932</v>
       </c>
       <c r="G4" t="n">
-        <v>7.407935126357701</v>
+        <v>7.407935126357712</v>
       </c>
     </row>
     <row r="5">
@@ -553,16 +553,16 @@
         <v>4.8828125</v>
       </c>
       <c r="D5" t="n">
-        <v>338.345571270994</v>
+        <v>337.994368939876</v>
       </c>
       <c r="E5" t="n">
-        <v>381.6225475437707</v>
+        <v>381.2264237588455</v>
       </c>
       <c r="F5" t="n">
-        <v>385.4387730192084</v>
+        <v>385.038687996434</v>
       </c>
       <c r="G5" t="n">
-        <v>12.21807587735018</v>
+        <v>12.2180758773502</v>
       </c>
     </row>
     <row r="6">
@@ -576,13 +576,13 @@
         <v>12.20703125</v>
       </c>
       <c r="D6" t="n">
-        <v>246.28700117882</v>
+        <v>246.03135554228</v>
       </c>
       <c r="E6" t="n">
-        <v>313.9547743612953</v>
+        <v>313.6288896505628</v>
       </c>
       <c r="F6" t="n">
-        <v>317.0943221049083</v>
+        <v>316.7651785470684</v>
       </c>
       <c r="G6" t="n">
         <v>22.33005007975584</v>
@@ -599,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,21 +622,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OZQGCU-SNF7N-G66F7V</t>
+          <t>OYS5E4-QKZ4K-X2QQI7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>489.79</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OTC6CZ-TEYM7-Q6U4HK</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>484.76</v>
+        <v>484.25</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,7 +658,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORKOID-BFSQX-U35FF3</t>
+          <t>O24I6G-ITY25-V4EEHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>OB24GP-W5PFU-NL6INY</t>
         </is>
       </c>
     </row>
